--- a/db_scheme.xlsx
+++ b/db_scheme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="116">
   <si>
     <t>Table Name</t>
   </si>
@@ -131,9 +131,6 @@
     <t>mobile_no</t>
   </si>
   <si>
-    <t>postal_code</t>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Service Provider Mobile number</t>
   </si>
   <si>
-    <t>Service Provider Password</t>
-  </si>
-  <si>
     <t>Service Provider Postal code</t>
   </si>
   <si>
@@ -170,15 +164,9 @@
     <t>duration</t>
   </si>
   <si>
-    <t>extra_service</t>
-  </si>
-  <si>
     <t>have_pet</t>
   </si>
   <si>
-    <t>phone_number</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -194,15 +182,9 @@
     <t>Accept_service</t>
   </si>
   <si>
-    <t>favid</t>
-  </si>
-  <si>
     <t>Block_SP</t>
   </si>
   <si>
-    <t>blockid</t>
-  </si>
-  <si>
     <t>timestamp</t>
   </si>
   <si>
@@ -291,6 +273,105 @@
   </si>
   <si>
     <t>time for rating</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>Postal code</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>favourite service Provider</t>
+  </si>
+  <si>
+    <t>bsid</t>
+  </si>
+  <si>
+    <t>block service provider</t>
+  </si>
+  <si>
+    <t>Service Provider Birth date</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>Service Provider nationality</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Service Provider gender</t>
+  </si>
+  <si>
+    <t>Service Provider password</t>
+  </si>
+  <si>
+    <t>Service Provider address</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>Service Provider avatar</t>
+  </si>
+  <si>
+    <t>bcid</t>
+  </si>
+  <si>
+    <t>Service Provider block customer id</t>
+  </si>
+  <si>
+    <t>extraServiceId</t>
+  </si>
+  <si>
+    <t>Customer work address</t>
+  </si>
+  <si>
+    <t>block_c</t>
+  </si>
+  <si>
+    <t>block Customer id</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>address id</t>
+  </si>
+  <si>
+    <t>street_name</t>
+  </si>
+  <si>
+    <t>Street Name</t>
+  </si>
+  <si>
+    <t>house_number</t>
+  </si>
+  <si>
+    <t>House Number</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City Name</t>
+  </si>
+  <si>
+    <t>extraService</t>
+  </si>
+  <si>
+    <t>Extra Service Id</t>
+  </si>
+  <si>
+    <t>extraServiceName</t>
+  </si>
+  <si>
+    <t>Extra Service Name</t>
   </si>
 </sst>
 </file>
@@ -313,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,18 +432,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="116" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +764,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -693,7 +781,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -711,7 +799,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -729,7 +817,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -747,7 +835,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -765,164 +853,158 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -934,472 +1016,772 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" t="s">
         <v>17</v>
       </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75">
         <v>20</v>
       </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" t="s">
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" t="s">
-        <v>62</v>
-      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A53:A60"/>
+  <mergeCells count="10">
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A50:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/db_scheme.xlsx
+++ b/db_scheme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -437,13 +437,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="116" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="116" workbookViewId="0">
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -1020,7 +1020,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1038,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1056,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>83</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>90</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>92</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1155,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>96</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B32" t="s">
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1217,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1232,7 +1232,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>45</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>100</v>
       </c>
@@ -1277,7 +1277,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>15</v>
       </c>
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>47</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>48</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
@@ -1357,7 +1357,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4"/>
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="4"/>
       <c r="B51" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="4"/>
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B55" t="s">
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1496,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B60" t="s">
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4"/>
       <c r="B61" t="s">
         <v>31</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="4"/>
       <c r="B62" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
@@ -1560,7 +1560,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>31</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="4"/>
       <c r="B67" t="s">
         <v>73</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="4"/>
       <c r="B68" t="s">
         <v>74</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="4"/>
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="4"/>
       <c r="B70" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1635,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="4"/>
       <c r="B71" t="s">
         <v>81</v>
       </c>
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4"/>
       <c r="B72" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B74" t="s">
@@ -1682,7 +1682,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="4"/>
       <c r="B75" t="s">
         <v>106</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="4"/>
       <c r="B76" t="s">
         <v>108</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="4"/>
       <c r="B77" t="s">
         <v>110</v>
       </c>
@@ -1768,20 +1768,20 @@
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A17:A29"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A65:A72"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A50:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
